--- a/baudot/DESPATCH_Poem_ALL.xlsx
+++ b/baudot/DESPATCH_Poem_ALL.xlsx
@@ -2062,9 +2062,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2073,57 +2070,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2151,6 +2097,60 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2451,8 +2451,8 @@
   </sheetPr>
   <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2513,8 +2513,8 @@
       <c r="O1" s="32">
         <v>10</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="104" t="s">
+      <c r="P1" s="84"/>
+      <c r="Q1" s="86" t="s">
         <v>30</v>
       </c>
       <c r="R1" s="23" t="s">
@@ -2546,16 +2546,16 @@
       </c>
     </row>
     <row r="2" spans="1:27" s="8" customFormat="1">
-      <c r="A2" s="87">
+      <c r="A2" s="107">
         <v>8</v>
       </c>
-      <c r="B2" s="99">
+      <c r="B2" s="97">
         <v>3.096064814814815E-2</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="97">
         <v>0.65652777777777771</v>
       </c>
-      <c r="D2" s="100">
+      <c r="D2" s="98">
         <v>3</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -2571,8 +2571,8 @@
       <c r="M2" s="46"/>
       <c r="N2" s="46"/>
       <c r="O2" s="48"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="105"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="87"/>
       <c r="R2" s="71"/>
       <c r="S2" s="72"/>
       <c r="T2" s="72"/>
@@ -2585,10 +2585,10 @@
       <c r="AA2" s="38"/>
     </row>
     <row r="3" spans="1:27" s="8" customFormat="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="64" t="s">
         <v>2</v>
       </c>
@@ -2616,8 +2616,8 @@
       <c r="O3" s="59" t="s">
         <v>354</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="106" t="str">
+      <c r="P3" s="84"/>
+      <c r="Q3" s="88" t="str">
         <f>VLOOKUP(D2,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -2658,14 +2658,14 @@
       </c>
     </row>
     <row r="4" spans="1:27" s="8" customFormat="1">
-      <c r="A4" s="88"/>
-      <c r="B4" s="92">
+      <c r="A4" s="108"/>
+      <c r="B4" s="93">
         <v>3.2349537037037038E-2</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="93">
         <v>0.65791666666666659</v>
       </c>
-      <c r="D4" s="93">
+      <c r="D4" s="95">
         <v>5</v>
       </c>
       <c r="E4" s="51" t="s">
@@ -2681,8 +2681,8 @@
       <c r="M4" s="60"/>
       <c r="N4" s="60"/>
       <c r="O4" s="62"/>
-      <c r="P4" s="102"/>
-      <c r="Q4" s="107"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="89"/>
       <c r="R4" s="76"/>
       <c r="S4" s="77"/>
       <c r="T4" s="77"/>
@@ -2695,10 +2695,10 @@
       <c r="AA4" s="40"/>
     </row>
     <row r="5" spans="1:27" s="8" customFormat="1">
-      <c r="A5" s="88"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="94"/>
+      <c r="A5" s="108"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="96"/>
       <c r="E5" s="18" t="s">
         <v>2</v>
       </c>
@@ -2732,8 +2732,8 @@
       <c r="O5" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="107" t="str">
+      <c r="P5" s="84"/>
+      <c r="Q5" s="89" t="str">
         <f>VLOOKUP(D4,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -2774,16 +2774,16 @@
       </c>
     </row>
     <row r="6" spans="1:27" s="8" customFormat="1">
-      <c r="A6" s="88">
+      <c r="A6" s="108">
         <v>9</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="93">
         <v>6.7418981481481483E-2</v>
       </c>
-      <c r="C6" s="92">
+      <c r="C6" s="93">
         <v>0.69298611111111119</v>
       </c>
-      <c r="D6" s="93">
+      <c r="D6" s="95">
         <v>3</v>
       </c>
       <c r="E6" s="51" t="s">
@@ -2799,8 +2799,8 @@
       <c r="M6" s="60"/>
       <c r="N6" s="60"/>
       <c r="O6" s="62"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="107"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="89"/>
       <c r="R6" s="76"/>
       <c r="S6" s="77"/>
       <c r="T6" s="77"/>
@@ -2813,10 +2813,10 @@
       <c r="AA6" s="40"/>
     </row>
     <row r="7" spans="1:27" s="8" customFormat="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="94"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="96"/>
       <c r="E7" s="18" t="s">
         <v>2</v>
       </c>
@@ -2842,8 +2842,8 @@
         <v>364</v>
       </c>
       <c r="O7" s="62"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="107" t="str">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="89" t="str">
         <f>VLOOKUP(D6,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -2862,11 +2862,11 @@
       <c r="U7" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="V7" s="78" t="str">
+      <c r="V7" s="81" t="str">
         <f>CONCATENATE(K7,L7,M7,N7)</f>
         <v>BLCK</v>
       </c>
-      <c r="W7" s="81" t="str">
+      <c r="W7" s="110" t="str">
         <f>VLOOKUP(D6,'Category Type List'!$A$2:$C$9,3,FALSE)</f>
         <v>Color</v>
       </c>
@@ -2884,14 +2884,14 @@
       </c>
     </row>
     <row r="8" spans="1:27" s="8" customFormat="1">
-      <c r="A8" s="88"/>
-      <c r="B8" s="92">
+      <c r="A8" s="108"/>
+      <c r="B8" s="93">
         <v>6.880787037037038E-2</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="93">
         <v>0.69437499999999996</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="95">
         <v>5</v>
       </c>
       <c r="E8" s="51" t="s">
@@ -2907,8 +2907,8 @@
       <c r="M8" s="60"/>
       <c r="N8" s="60"/>
       <c r="O8" s="62"/>
-      <c r="P8" s="102"/>
-      <c r="Q8" s="107"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="89"/>
       <c r="R8" s="76"/>
       <c r="S8" s="77"/>
       <c r="T8" s="77"/>
@@ -2921,10 +2921,10 @@
       <c r="AA8" s="40"/>
     </row>
     <row r="9" spans="1:27" s="8" customFormat="1">
-      <c r="A9" s="88"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="94"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="96"/>
       <c r="E9" s="18" t="s">
         <v>2</v>
       </c>
@@ -2958,8 +2958,8 @@
       <c r="O9" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P9" s="102"/>
-      <c r="Q9" s="107" t="str">
+      <c r="P9" s="84"/>
+      <c r="Q9" s="89" t="str">
         <f>VLOOKUP(D8,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -2978,11 +2978,11 @@
       <c r="U9" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="V9" s="78" t="str">
+      <c r="V9" s="81" t="str">
         <f>CONCATENATE(K9,L9,M9,N9)</f>
         <v>ITAL</v>
       </c>
-      <c r="W9" s="81" t="str">
+      <c r="W9" s="110" t="str">
         <f>VLOOKUP(D8,'Category Type List'!$A$2:$C$9,3,FALSE)</f>
         <v>Rhythm</v>
       </c>
@@ -3000,14 +3000,14 @@
       </c>
     </row>
     <row r="10" spans="1:27" s="8" customFormat="1">
-      <c r="A10" s="88"/>
-      <c r="B10" s="92">
+      <c r="A10" s="108"/>
+      <c r="B10" s="93">
         <v>7.0196759259259264E-2</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="93">
         <v>0.69576388888888896</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="95">
         <v>6</v>
       </c>
       <c r="E10" s="51" t="s">
@@ -3023,8 +3023,8 @@
       <c r="M10" s="60"/>
       <c r="N10" s="60"/>
       <c r="O10" s="62"/>
-      <c r="P10" s="102"/>
-      <c r="Q10" s="107"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="89"/>
       <c r="R10" s="76"/>
       <c r="S10" s="77"/>
       <c r="T10" s="77"/>
@@ -3037,10 +3037,10 @@
       <c r="AA10" s="40"/>
     </row>
     <row r="11" spans="1:27" s="8" customFormat="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="94"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="96"/>
       <c r="E11" s="18" t="s">
         <v>2</v>
       </c>
@@ -3074,8 +3074,8 @@
       <c r="O11" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P11" s="102"/>
-      <c r="Q11" s="107" t="str">
+      <c r="P11" s="84"/>
+      <c r="Q11" s="89" t="str">
         <f>VLOOKUP(D10,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -3106,14 +3106,14 @@
       </c>
     </row>
     <row r="12" spans="1:27" s="8" customFormat="1">
-      <c r="A12" s="88"/>
-      <c r="B12" s="92">
+      <c r="A12" s="108"/>
+      <c r="B12" s="93">
         <v>7.0949074074074067E-2</v>
       </c>
-      <c r="C12" s="92">
+      <c r="C12" s="93">
         <v>0.69651620370370371</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="95">
         <v>7</v>
       </c>
       <c r="E12" s="51" t="s">
@@ -3129,8 +3129,8 @@
       <c r="M12" s="60"/>
       <c r="N12" s="60"/>
       <c r="O12" s="62"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="107"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="89"/>
       <c r="R12" s="76"/>
       <c r="S12" s="77"/>
       <c r="T12" s="77"/>
@@ -3143,10 +3143,10 @@
       <c r="AA12" s="40"/>
     </row>
     <row r="13" spans="1:27" s="8" customFormat="1">
-      <c r="A13" s="88"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="94"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="96"/>
       <c r="E13" s="18" t="s">
         <v>2</v>
       </c>
@@ -3178,8 +3178,8 @@
         <v>28</v>
       </c>
       <c r="O13" s="62"/>
-      <c r="P13" s="102"/>
-      <c r="Q13" s="107" t="str">
+      <c r="P13" s="84"/>
+      <c r="Q13" s="89" t="str">
         <f>VLOOKUP(D12,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name2</v>
       </c>
@@ -3210,14 +3210,14 @@
       </c>
     </row>
     <row r="14" spans="1:27" s="8" customFormat="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="92">
+      <c r="A14" s="108"/>
+      <c r="B14" s="93">
         <v>7.1585648148148148E-2</v>
       </c>
-      <c r="C14" s="92">
+      <c r="C14" s="93">
         <v>0.69715277777777773</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="95">
         <v>0</v>
       </c>
       <c r="E14" s="51" t="s">
@@ -3233,8 +3233,8 @@
       <c r="M14" s="60"/>
       <c r="N14" s="60"/>
       <c r="O14" s="62"/>
-      <c r="P14" s="102"/>
-      <c r="Q14" s="107"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="89"/>
       <c r="R14" s="76"/>
       <c r="S14" s="77"/>
       <c r="T14" s="77"/>
@@ -3247,10 +3247,10 @@
       <c r="AA14" s="40"/>
     </row>
     <row r="15" spans="1:27" s="8" customFormat="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="94"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="96"/>
       <c r="E15" s="18" t="s">
         <v>2</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="O15" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="107" t="str">
+      <c r="P15" s="84"/>
+      <c r="Q15" s="89" t="str">
         <f>VLOOKUP(D14,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Call sign</v>
       </c>
@@ -3316,14 +3316,14 @@
       </c>
     </row>
     <row r="16" spans="1:27" s="8" customFormat="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="92">
+      <c r="A16" s="108"/>
+      <c r="B16" s="93">
         <v>7.2974537037037032E-2</v>
       </c>
-      <c r="C16" s="92">
+      <c r="C16" s="93">
         <v>0.69854166666666673</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="95">
         <v>2</v>
       </c>
       <c r="E16" s="51" t="s">
@@ -3339,8 +3339,8 @@
       <c r="M16" s="60"/>
       <c r="N16" s="60"/>
       <c r="O16" s="62"/>
-      <c r="P16" s="102"/>
-      <c r="Q16" s="107"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="89"/>
       <c r="R16" s="76"/>
       <c r="S16" s="77"/>
       <c r="T16" s="77"/>
@@ -3353,10 +3353,10 @@
       <c r="AA16" s="40"/>
     </row>
     <row r="17" spans="1:27" s="8" customFormat="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="94"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="96"/>
       <c r="E17" s="18" t="s">
         <v>2</v>
       </c>
@@ -3375,15 +3375,15 @@
       <c r="L17" s="60" t="s">
         <v>362</v>
       </c>
-      <c r="M17" s="83" t="s">
+      <c r="M17" s="82" t="s">
         <v>363</v>
       </c>
-      <c r="N17" s="83" t="s">
+      <c r="N17" s="82" t="s">
         <v>364</v>
       </c>
       <c r="O17" s="62"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="107" t="str">
+      <c r="P17" s="84"/>
+      <c r="Q17" s="89" t="str">
         <f>VLOOKUP(D16,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -3402,7 +3402,7 @@
       <c r="U17" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="V17" s="84" t="str">
+      <c r="V17" s="83" t="str">
         <f>CONCATENATE(K17,L17,M17,N17)</f>
         <v>BLCK</v>
       </c>
@@ -3424,14 +3424,14 @@
       </c>
     </row>
     <row r="18" spans="1:27" s="8" customFormat="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="92">
+      <c r="A18" s="108"/>
+      <c r="B18" s="93">
         <v>7.3668981481481488E-2</v>
       </c>
-      <c r="C18" s="92">
+      <c r="C18" s="93">
         <v>0.69923611111111106</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="95">
         <v>3</v>
       </c>
       <c r="E18" s="51" t="s">
@@ -3447,8 +3447,8 @@
       <c r="M18" s="60"/>
       <c r="N18" s="60"/>
       <c r="O18" s="62"/>
-      <c r="P18" s="102"/>
-      <c r="Q18" s="107"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="89"/>
       <c r="R18" s="76"/>
       <c r="S18" s="77"/>
       <c r="T18" s="77"/>
@@ -3461,10 +3461,10 @@
       <c r="AA18" s="40"/>
     </row>
     <row r="19" spans="1:27" s="8" customFormat="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="94"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="96"/>
       <c r="E19" s="18" t="s">
         <v>2</v>
       </c>
@@ -3490,8 +3490,8 @@
         <v>353</v>
       </c>
       <c r="O19" s="62"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="107" t="str">
+      <c r="P19" s="84"/>
+      <c r="Q19" s="89" t="str">
         <f>VLOOKUP(D18,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -3510,7 +3510,7 @@
       <c r="U19" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="V19" s="82" t="str">
+      <c r="V19" s="81" t="str">
         <f>CONCATENATE(K19,L19,M19,N19)</f>
         <v>ROSE</v>
       </c>
@@ -3532,14 +3532,14 @@
       </c>
     </row>
     <row r="20" spans="1:27" s="8" customFormat="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="92">
+      <c r="A20" s="108"/>
+      <c r="B20" s="93">
         <v>7.436342592592593E-2</v>
       </c>
-      <c r="C20" s="92">
+      <c r="C20" s="93">
         <v>0.6999305555555555</v>
       </c>
-      <c r="D20" s="93">
+      <c r="D20" s="95">
         <v>4</v>
       </c>
       <c r="E20" s="51" t="s">
@@ -3555,8 +3555,8 @@
       <c r="M20" s="60"/>
       <c r="N20" s="60"/>
       <c r="O20" s="62"/>
-      <c r="P20" s="102"/>
-      <c r="Q20" s="107"/>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="89"/>
       <c r="R20" s="76"/>
       <c r="S20" s="77"/>
       <c r="T20" s="77"/>
@@ -3569,10 +3569,10 @@
       <c r="AA20" s="40"/>
     </row>
     <row r="21" spans="1:27" s="8" customFormat="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="94"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="18" t="s">
         <v>2</v>
       </c>
@@ -3600,12 +3600,12 @@
       <c r="M21" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="N21" s="83" t="s">
+      <c r="N21" s="82" t="s">
         <v>358</v>
       </c>
       <c r="O21" s="62"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="107" t="str">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="89" t="str">
         <f>VLOOKUP(D20,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="U21" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="V21" s="84" t="str">
+      <c r="V21" s="83" t="str">
         <f>CONCATENATE(K21,L21,M21,N21)</f>
         <v>LENG</v>
       </c>
@@ -3646,14 +3646,14 @@
       </c>
     </row>
     <row r="22" spans="1:27" s="8" customFormat="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="92">
+      <c r="A22" s="108"/>
+      <c r="B22" s="93">
         <v>7.8530092592592596E-2</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="93">
         <v>0.70409722222222226</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="95">
         <v>2</v>
       </c>
       <c r="E22" s="51" t="s">
@@ -3669,8 +3669,8 @@
       <c r="M22" s="60"/>
       <c r="N22" s="60"/>
       <c r="O22" s="62"/>
-      <c r="P22" s="102"/>
-      <c r="Q22" s="107"/>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="89"/>
       <c r="R22" s="76"/>
       <c r="S22" s="77"/>
       <c r="T22" s="77"/>
@@ -3683,10 +3683,10 @@
       <c r="AA22" s="40"/>
     </row>
     <row r="23" spans="1:27" s="8" customFormat="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="96"/>
       <c r="E23" s="18" t="s">
         <v>2</v>
       </c>
@@ -3700,8 +3700,8 @@
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
       <c r="O23" s="62"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="107" t="str">
+      <c r="P23" s="84"/>
+      <c r="Q23" s="89" t="str">
         <f>VLOOKUP(D22,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -3742,14 +3742,14 @@
       </c>
     </row>
     <row r="24" spans="1:27" s="8" customFormat="1">
-      <c r="A24" s="88"/>
-      <c r="B24" s="92">
+      <c r="A24" s="108"/>
+      <c r="B24" s="93">
         <v>7.991898148148148E-2</v>
       </c>
-      <c r="C24" s="92">
+      <c r="C24" s="93">
         <v>0.70548611111111104</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="95">
         <v>4</v>
       </c>
       <c r="E24" s="51" t="s">
@@ -3765,8 +3765,8 @@
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
       <c r="O24" s="62"/>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="107"/>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="89"/>
       <c r="R24" s="76"/>
       <c r="S24" s="77"/>
       <c r="T24" s="77"/>
@@ -3779,10 +3779,10 @@
       <c r="AA24" s="40"/>
     </row>
     <row r="25" spans="1:27" s="8" customFormat="1">
-      <c r="A25" s="88"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="94"/>
+      <c r="A25" s="108"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="96"/>
       <c r="E25" s="18" t="s">
         <v>2</v>
       </c>
@@ -3816,8 +3816,8 @@
       <c r="O25" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="107" t="str">
+      <c r="P25" s="84"/>
+      <c r="Q25" s="89" t="str">
         <f>VLOOKUP(D24,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -3836,7 +3836,7 @@
       <c r="U25" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="V25" s="82" t="str">
+      <c r="V25" s="81" t="str">
         <f>CONCATENATE(K25,L25,M25,N25)</f>
         <v>KATA</v>
       </c>
@@ -3858,16 +3858,16 @@
       </c>
     </row>
     <row r="26" spans="1:27" s="8" customFormat="1">
-      <c r="A26" s="88">
+      <c r="A26" s="108">
         <v>10</v>
       </c>
-      <c r="B26" s="92">
+      <c r="B26" s="93">
         <v>0.11342592592592593</v>
       </c>
-      <c r="C26" s="92">
+      <c r="C26" s="93">
         <v>0.7389930555555555</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="95">
         <v>0</v>
       </c>
       <c r="E26" s="51" t="s">
@@ -3883,8 +3883,8 @@
       <c r="M26" s="60"/>
       <c r="N26" s="60"/>
       <c r="O26" s="62"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="107"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="89"/>
       <c r="R26" s="76"/>
       <c r="S26" s="77"/>
       <c r="T26" s="77"/>
@@ -3897,10 +3897,10 @@
       <c r="AA26" s="40"/>
     </row>
     <row r="27" spans="1:27" s="8" customFormat="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="96"/>
       <c r="E27" s="18" t="s">
         <v>2</v>
       </c>
@@ -3934,8 +3934,8 @@
       <c r="O27" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="107" t="str">
+      <c r="P27" s="84"/>
+      <c r="Q27" s="89" t="str">
         <f>VLOOKUP(D26,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Call sign</v>
       </c>
@@ -3966,14 +3966,14 @@
       </c>
     </row>
     <row r="28" spans="1:27" s="8" customFormat="1">
-      <c r="A28" s="88"/>
-      <c r="B28" s="92">
+      <c r="A28" s="108"/>
+      <c r="B28" s="93">
         <v>0.11903935185185184</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="93">
         <v>0.74460648148148145</v>
       </c>
-      <c r="D28" s="93">
+      <c r="D28" s="95">
         <v>0</v>
       </c>
       <c r="E28" s="51" t="s">
@@ -3989,8 +3989,8 @@
       <c r="M28" s="60"/>
       <c r="N28" s="60"/>
       <c r="O28" s="62"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="107"/>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="89"/>
       <c r="R28" s="76"/>
       <c r="S28" s="77"/>
       <c r="T28" s="77"/>
@@ -4003,10 +4003,10 @@
       <c r="AA28" s="40"/>
     </row>
     <row r="29" spans="1:27" s="8" customFormat="1">
-      <c r="A29" s="88"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="94"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="96"/>
       <c r="E29" s="18" t="s">
         <v>2</v>
       </c>
@@ -4038,8 +4038,8 @@
       <c r="O29" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="107" t="str">
+      <c r="P29" s="84"/>
+      <c r="Q29" s="89" t="str">
         <f>VLOOKUP(D28,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Call sign</v>
       </c>
@@ -4070,14 +4070,14 @@
       </c>
     </row>
     <row r="30" spans="1:27" s="8" customFormat="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="92">
+      <c r="A30" s="108"/>
+      <c r="B30" s="93">
         <v>0.12106481481481481</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="93">
         <v>0.74663194444444436</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="95">
         <v>3</v>
       </c>
       <c r="E30" s="51" t="s">
@@ -4093,8 +4093,8 @@
       <c r="M30" s="60"/>
       <c r="N30" s="60"/>
       <c r="O30" s="62"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="107"/>
+      <c r="P30" s="84"/>
+      <c r="Q30" s="89"/>
       <c r="R30" s="76"/>
       <c r="S30" s="77"/>
       <c r="T30" s="77"/>
@@ -4107,10 +4107,10 @@
       <c r="AA30" s="40"/>
     </row>
     <row r="31" spans="1:27" s="8" customFormat="1">
-      <c r="A31" s="88"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="94"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="96"/>
       <c r="E31" s="18" t="s">
         <v>2</v>
       </c>
@@ -4138,8 +4138,8 @@
       <c r="O31" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="107" t="str">
+      <c r="P31" s="84"/>
+      <c r="Q31" s="89" t="str">
         <f>VLOOKUP(D30,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -4158,7 +4158,7 @@
       <c r="U31" s="67" t="s">
         <v>376</v>
       </c>
-      <c r="V31" s="82" t="str">
+      <c r="V31" s="81" t="str">
         <f>CONCATENATE(K31,L31,M31,N31)</f>
         <v>ROSE</v>
       </c>
@@ -4180,14 +4180,14 @@
       </c>
     </row>
     <row r="32" spans="1:27" s="8" customFormat="1">
-      <c r="A32" s="88"/>
-      <c r="B32" s="92">
+      <c r="A32" s="108"/>
+      <c r="B32" s="93">
         <v>0.12175925925925928</v>
       </c>
-      <c r="C32" s="92">
+      <c r="C32" s="93">
         <v>0.74732638888888892</v>
       </c>
-      <c r="D32" s="93">
+      <c r="D32" s="95">
         <v>4</v>
       </c>
       <c r="E32" s="51" t="s">
@@ -4203,8 +4203,8 @@
       <c r="M32" s="60"/>
       <c r="N32" s="60"/>
       <c r="O32" s="62"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="107"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="89"/>
       <c r="R32" s="76"/>
       <c r="S32" s="77"/>
       <c r="T32" s="77"/>
@@ -4217,10 +4217,10 @@
       <c r="AA32" s="40"/>
     </row>
     <row r="33" spans="1:27" s="8" customFormat="1">
-      <c r="A33" s="88"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="94"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="18" t="s">
         <v>2</v>
       </c>
@@ -4254,8 +4254,8 @@
       <c r="O33" s="62" t="s">
         <v>354</v>
       </c>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="107" t="str">
+      <c r="P33" s="84"/>
+      <c r="Q33" s="89" t="str">
         <f>VLOOKUP(D32,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -4274,7 +4274,7 @@
       <c r="U33" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="V33" s="82" t="str">
+      <c r="V33" s="81" t="str">
         <f>CONCATENATE(K33,L33,M33,N33)</f>
         <v>LAUL</v>
       </c>
@@ -4296,16 +4296,16 @@
       </c>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="89">
+      <c r="A34" s="100">
         <v>12</v>
       </c>
-      <c r="B34" s="92">
+      <c r="B34" s="93">
         <v>2.0833333333333335E-4</v>
       </c>
-      <c r="C34" s="92">
+      <c r="C34" s="93">
         <v>0.84017361111111111</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="95">
         <v>3</v>
       </c>
       <c r="E34" s="51" t="s">
@@ -4341,8 +4341,8 @@
       <c r="O34" s="54" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="108"/>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="90"/>
       <c r="R34" s="55"/>
       <c r="S34" s="53"/>
       <c r="T34" s="53"/>
@@ -4355,10 +4355,10 @@
       <c r="AA34" s="57"/>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="89"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="94"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="96"/>
       <c r="E35" s="18" t="s">
         <v>2</v>
       </c>
@@ -4392,8 +4392,8 @@
       <c r="O35" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P35" s="103"/>
-      <c r="Q35" s="109" t="str">
+      <c r="P35" s="85"/>
+      <c r="Q35" s="91" t="str">
         <f>VLOOKUP(D34,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -4433,14 +4433,14 @@
       </c>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="89"/>
-      <c r="B36" s="85">
+      <c r="A36" s="100"/>
+      <c r="B36" s="103">
         <v>8.3333333333333339E-4</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="103">
         <v>0.84079861111111109</v>
       </c>
-      <c r="D36" s="95">
+      <c r="D36" s="105">
         <v>4</v>
       </c>
       <c r="E36" s="18" t="s">
@@ -4476,8 +4476,8 @@
       <c r="O36" s="28">
         <v>0</v>
       </c>
-      <c r="P36" s="103"/>
-      <c r="Q36" s="109"/>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="91"/>
       <c r="R36" s="12"/>
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
@@ -4489,10 +4489,10 @@
       <c r="AA36" s="40"/>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="89"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="94"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="94"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="96"/>
       <c r="E37" s="18" t="s">
         <v>2</v>
       </c>
@@ -4526,8 +4526,8 @@
       <c r="O37" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P37" s="103"/>
-      <c r="Q37" s="109" t="str">
+      <c r="P37" s="85"/>
+      <c r="Q37" s="91" t="str">
         <f>VLOOKUP(D36,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -4567,14 +4567,14 @@
       </c>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="89"/>
-      <c r="B38" s="85">
+      <c r="A38" s="100"/>
+      <c r="B38" s="103">
         <v>1.5277777777777779E-3</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="103">
         <v>0.84149305555555554</v>
       </c>
-      <c r="D38" s="95">
+      <c r="D38" s="105">
         <v>5</v>
       </c>
       <c r="E38" s="18" t="s">
@@ -4610,8 +4610,8 @@
       <c r="O38" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P38" s="103"/>
-      <c r="Q38" s="109"/>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="91"/>
       <c r="R38" s="12"/>
       <c r="S38" s="9"/>
       <c r="T38" s="9"/>
@@ -4623,10 +4623,10 @@
       <c r="AA38" s="40"/>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="89"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="94"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="94"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="96"/>
       <c r="E39" s="18" t="s">
         <v>2</v>
       </c>
@@ -4660,8 +4660,8 @@
       <c r="O39" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P39" s="103"/>
-      <c r="Q39" s="109" t="str">
+      <c r="P39" s="85"/>
+      <c r="Q39" s="91" t="str">
         <f>VLOOKUP(D38,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -4701,14 +4701,14 @@
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="89"/>
-      <c r="B40" s="85">
+      <c r="A40" s="100"/>
+      <c r="B40" s="103">
         <v>2.1759259259259258E-3</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="103">
         <v>0.8421412037037036</v>
       </c>
-      <c r="D40" s="95">
+      <c r="D40" s="105">
         <v>6</v>
       </c>
       <c r="E40" s="18" t="s">
@@ -4744,8 +4744,8 @@
       <c r="O40" s="28">
         <v>0</v>
       </c>
-      <c r="P40" s="103"/>
-      <c r="Q40" s="109"/>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="91"/>
       <c r="R40" s="12"/>
       <c r="S40" s="9"/>
       <c r="T40" s="9"/>
@@ -4757,10 +4757,10 @@
       <c r="AA40" s="40"/>
     </row>
     <row r="41" spans="1:27">
-      <c r="A41" s="89"/>
-      <c r="B41" s="86"/>
-      <c r="C41" s="86"/>
-      <c r="D41" s="94"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="96"/>
       <c r="E41" s="18" t="s">
         <v>2</v>
       </c>
@@ -4794,8 +4794,8 @@
       <c r="O41" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P41" s="103"/>
-      <c r="Q41" s="109" t="str">
+      <c r="P41" s="85"/>
+      <c r="Q41" s="91" t="str">
         <f>VLOOKUP(D40,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -4825,14 +4825,14 @@
       </c>
     </row>
     <row r="42" spans="1:27">
-      <c r="A42" s="89"/>
-      <c r="B42" s="85">
+      <c r="A42" s="100"/>
+      <c r="B42" s="103">
         <v>2.9282407407407412E-3</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="103">
         <v>0.84289351851851846</v>
       </c>
-      <c r="D42" s="95">
+      <c r="D42" s="105">
         <v>7</v>
       </c>
       <c r="E42" s="18" t="s">
@@ -4866,8 +4866,8 @@
         <v>0</v>
       </c>
       <c r="O42" s="28"/>
-      <c r="P42" s="103"/>
-      <c r="Q42" s="109"/>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="91"/>
       <c r="R42" s="12"/>
       <c r="S42" s="9"/>
       <c r="T42" s="9"/>
@@ -4879,10 +4879,10 @@
       <c r="AA42" s="40"/>
     </row>
     <row r="43" spans="1:27">
-      <c r="A43" s="90"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="94"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="96"/>
       <c r="E43" s="18" t="s">
         <v>2</v>
       </c>
@@ -4914,8 +4914,8 @@
         <v>28</v>
       </c>
       <c r="O43" s="28"/>
-      <c r="P43" s="103"/>
-      <c r="Q43" s="109" t="str">
+      <c r="P43" s="85"/>
+      <c r="Q43" s="91" t="str">
         <f>VLOOKUP(D42,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name2</v>
       </c>
@@ -4945,16 +4945,16 @@
       </c>
     </row>
     <row r="44" spans="1:27">
-      <c r="A44" s="91">
+      <c r="A44" s="99">
         <v>13</v>
       </c>
-      <c r="B44" s="85">
+      <c r="B44" s="103">
         <v>3.0092592592592595E-4</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="103">
         <v>0.88480324074074079</v>
       </c>
-      <c r="D44" s="95">
+      <c r="D44" s="105">
         <v>6</v>
       </c>
       <c r="E44" s="18" t="s">
@@ -4990,8 +4990,8 @@
       <c r="O44" s="28">
         <v>0</v>
       </c>
-      <c r="P44" s="103"/>
-      <c r="Q44" s="109"/>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="91"/>
       <c r="R44" s="12"/>
       <c r="S44" s="9"/>
       <c r="T44" s="9"/>
@@ -5003,10 +5003,10 @@
       <c r="AA44" s="40"/>
     </row>
     <row r="45" spans="1:27">
-      <c r="A45" s="89"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="94"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="96"/>
       <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
@@ -5040,8 +5040,8 @@
       <c r="O45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P45" s="103"/>
-      <c r="Q45" s="109" t="str">
+      <c r="P45" s="85"/>
+      <c r="Q45" s="91" t="str">
         <f>VLOOKUP(D44,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -5071,14 +5071,14 @@
       </c>
     </row>
     <row r="46" spans="1:27">
-      <c r="A46" s="89"/>
-      <c r="B46" s="85">
+      <c r="A46" s="100"/>
+      <c r="B46" s="103">
         <v>1.0532407407407407E-3</v>
       </c>
-      <c r="C46" s="85">
+      <c r="C46" s="103">
         <v>0.88555555555555554</v>
       </c>
-      <c r="D46" s="95">
+      <c r="D46" s="105">
         <v>7</v>
       </c>
       <c r="E46" s="18" t="s">
@@ -5112,8 +5112,8 @@
         <v>0</v>
       </c>
       <c r="O46" s="28"/>
-      <c r="P46" s="103"/>
-      <c r="Q46" s="109"/>
+      <c r="P46" s="85"/>
+      <c r="Q46" s="91"/>
       <c r="R46" s="12"/>
       <c r="S46" s="9"/>
       <c r="T46" s="9"/>
@@ -5125,10 +5125,10 @@
       <c r="AA46" s="40"/>
     </row>
     <row r="47" spans="1:27">
-      <c r="A47" s="89"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="94"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="96"/>
       <c r="E47" s="18" t="s">
         <v>2</v>
       </c>
@@ -5160,8 +5160,8 @@
         <v>28</v>
       </c>
       <c r="O47" s="28"/>
-      <c r="P47" s="103"/>
-      <c r="Q47" s="109" t="str">
+      <c r="P47" s="85"/>
+      <c r="Q47" s="91" t="str">
         <f>VLOOKUP(D46,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name2</v>
       </c>
@@ -5191,14 +5191,14 @@
       </c>
     </row>
     <row r="48" spans="1:27">
-      <c r="A48" s="89"/>
-      <c r="B48" s="85">
+      <c r="A48" s="100"/>
+      <c r="B48" s="103">
         <v>1.689814814814815E-3</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="103">
         <v>0.88619212962962957</v>
       </c>
-      <c r="D48" s="95">
+      <c r="D48" s="105">
         <v>0</v>
       </c>
       <c r="E48" s="18" t="s">
@@ -5234,8 +5234,8 @@
       <c r="O48" s="28">
         <v>0</v>
       </c>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="109"/>
+      <c r="P48" s="85"/>
+      <c r="Q48" s="91"/>
       <c r="R48" s="12"/>
       <c r="S48" s="9"/>
       <c r="T48" s="9"/>
@@ -5247,10 +5247,10 @@
       <c r="AA48" s="40"/>
     </row>
     <row r="49" spans="1:27">
-      <c r="A49" s="89"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="94"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="96"/>
       <c r="E49" s="18" t="s">
         <v>2</v>
       </c>
@@ -5284,8 +5284,8 @@
       <c r="O49" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P49" s="103"/>
-      <c r="Q49" s="109" t="str">
+      <c r="P49" s="85"/>
+      <c r="Q49" s="91" t="str">
         <f>VLOOKUP(D48,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Call sign</v>
       </c>
@@ -5315,14 +5315,14 @@
       </c>
     </row>
     <row r="50" spans="1:27">
-      <c r="A50" s="89"/>
-      <c r="B50" s="85">
+      <c r="A50" s="100"/>
+      <c r="B50" s="103">
         <v>2.3958333333333336E-3</v>
       </c>
-      <c r="C50" s="85">
+      <c r="C50" s="103">
         <v>0.88689814814814805</v>
       </c>
-      <c r="D50" s="95">
+      <c r="D50" s="105">
         <v>1</v>
       </c>
       <c r="E50" s="18" t="s">
@@ -5358,8 +5358,8 @@
       <c r="O50" s="28">
         <v>0</v>
       </c>
-      <c r="P50" s="103"/>
-      <c r="Q50" s="109"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="91"/>
       <c r="R50" s="12"/>
       <c r="S50" s="9"/>
       <c r="T50" s="9"/>
@@ -5371,10 +5371,10 @@
       <c r="AA50" s="40"/>
     </row>
     <row r="51" spans="1:27">
-      <c r="A51" s="89"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="94"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="18" t="s">
         <v>2</v>
       </c>
@@ -5408,8 +5408,8 @@
       <c r="O51" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P51" s="103"/>
-      <c r="Q51" s="109" t="str">
+      <c r="P51" s="85"/>
+      <c r="Q51" s="91" t="str">
         <f>VLOOKUP(D50,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Status</v>
       </c>
@@ -5439,14 +5439,14 @@
       </c>
     </row>
     <row r="52" spans="1:27">
-      <c r="A52" s="89"/>
-      <c r="B52" s="85">
+      <c r="A52" s="100"/>
+      <c r="B52" s="103">
         <v>3.0902777777777782E-3</v>
       </c>
-      <c r="C52" s="85">
+      <c r="C52" s="103">
         <v>0.8875925925925926</v>
       </c>
-      <c r="D52" s="95">
+      <c r="D52" s="105">
         <v>2</v>
       </c>
       <c r="E52" s="18" t="s">
@@ -5482,8 +5482,8 @@
       <c r="O52" s="28">
         <v>0</v>
       </c>
-      <c r="P52" s="103"/>
-      <c r="Q52" s="109"/>
+      <c r="P52" s="85"/>
+      <c r="Q52" s="91"/>
       <c r="R52" s="12"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9"/>
@@ -5495,10 +5495,10 @@
       <c r="AA52" s="40"/>
     </row>
     <row r="53" spans="1:27">
-      <c r="A53" s="89"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="94"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="96"/>
       <c r="E53" s="18" t="s">
         <v>2</v>
       </c>
@@ -5532,8 +5532,8 @@
       <c r="O53" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P53" s="103"/>
-      <c r="Q53" s="109" t="str">
+      <c r="P53" s="85"/>
+      <c r="Q53" s="91" t="str">
         <f>VLOOKUP(D52,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -5573,14 +5573,14 @@
       </c>
     </row>
     <row r="54" spans="1:27">
-      <c r="A54" s="89"/>
-      <c r="B54" s="85">
+      <c r="A54" s="100"/>
+      <c r="B54" s="103">
         <v>3.7847222222222223E-3</v>
       </c>
-      <c r="C54" s="85">
+      <c r="C54" s="103">
         <v>0.88828703703703704</v>
       </c>
-      <c r="D54" s="95">
+      <c r="D54" s="105">
         <v>3</v>
       </c>
       <c r="E54" s="18" t="s">
@@ -5616,8 +5616,8 @@
       <c r="O54" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P54" s="103"/>
-      <c r="Q54" s="109"/>
+      <c r="P54" s="85"/>
+      <c r="Q54" s="91"/>
       <c r="R54" s="12"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9"/>
@@ -5629,10 +5629,10 @@
       <c r="AA54" s="40"/>
     </row>
     <row r="55" spans="1:27">
-      <c r="A55" s="90"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="94"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="96"/>
       <c r="E55" s="18" t="s">
         <v>2</v>
       </c>
@@ -5666,8 +5666,8 @@
       <c r="O55" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P55" s="103"/>
-      <c r="Q55" s="109" t="str">
+      <c r="P55" s="85"/>
+      <c r="Q55" s="91" t="str">
         <f>VLOOKUP(D54,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -5707,16 +5707,16 @@
       </c>
     </row>
     <row r="56" spans="1:27">
-      <c r="A56" s="91">
+      <c r="A56" s="99">
         <v>14</v>
       </c>
-      <c r="B56" s="85">
+      <c r="B56" s="103">
         <v>2.199074074074074E-4</v>
       </c>
-      <c r="C56" s="85">
+      <c r="C56" s="103">
         <v>0.92873842592592604</v>
       </c>
-      <c r="D56" s="95">
+      <c r="D56" s="105">
         <v>1</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -5752,8 +5752,8 @@
       <c r="O56" s="28">
         <v>0</v>
       </c>
-      <c r="P56" s="103"/>
-      <c r="Q56" s="109"/>
+      <c r="P56" s="85"/>
+      <c r="Q56" s="91"/>
       <c r="R56" s="12"/>
       <c r="S56" s="9"/>
       <c r="T56" s="9"/>
@@ -5765,10 +5765,10 @@
       <c r="AA56" s="40"/>
     </row>
     <row r="57" spans="1:27">
-      <c r="A57" s="89"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="94"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="96"/>
       <c r="E57" s="18" t="s">
         <v>2</v>
       </c>
@@ -5802,8 +5802,8 @@
       <c r="O57" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P57" s="103"/>
-      <c r="Q57" s="109" t="str">
+      <c r="P57" s="85"/>
+      <c r="Q57" s="91" t="str">
         <f>VLOOKUP(D56,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Status</v>
       </c>
@@ -5833,14 +5833,14 @@
       </c>
     </row>
     <row r="58" spans="1:27">
-      <c r="A58" s="89"/>
-      <c r="B58" s="85">
+      <c r="A58" s="100"/>
+      <c r="B58" s="103">
         <v>9.1435185185185185E-4</v>
       </c>
-      <c r="C58" s="85">
+      <c r="C58" s="103">
         <v>0.92943287037037037</v>
       </c>
-      <c r="D58" s="95">
+      <c r="D58" s="105">
         <v>2</v>
       </c>
       <c r="E58" s="18" t="s">
@@ -5866,8 +5866,8 @@
       <c r="O58" s="28">
         <v>0</v>
       </c>
-      <c r="P58" s="103"/>
-      <c r="Q58" s="109"/>
+      <c r="P58" s="85"/>
+      <c r="Q58" s="91"/>
       <c r="R58" s="12"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9"/>
@@ -5879,10 +5879,10 @@
       <c r="AA58" s="40"/>
     </row>
     <row r="59" spans="1:27">
-      <c r="A59" s="89"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="94"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="96"/>
       <c r="E59" s="18" t="s">
         <v>2</v>
       </c>
@@ -5906,8 +5906,8 @@
       <c r="O59" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P59" s="103"/>
-      <c r="Q59" s="109" t="str">
+      <c r="P59" s="85"/>
+      <c r="Q59" s="91" t="str">
         <f>VLOOKUP(D58,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -5947,14 +5947,14 @@
       </c>
     </row>
     <row r="60" spans="1:27">
-      <c r="A60" s="89"/>
-      <c r="B60" s="85">
+      <c r="A60" s="100"/>
+      <c r="B60" s="103">
         <v>1.6087962962962963E-3</v>
       </c>
-      <c r="C60" s="85">
+      <c r="C60" s="103">
         <v>0.93012731481481481</v>
       </c>
-      <c r="D60" s="95">
+      <c r="D60" s="105">
         <v>3</v>
       </c>
       <c r="E60" s="18" t="s">
@@ -5990,8 +5990,8 @@
       <c r="O60" s="28">
         <v>0</v>
       </c>
-      <c r="P60" s="103"/>
-      <c r="Q60" s="109"/>
+      <c r="P60" s="85"/>
+      <c r="Q60" s="91"/>
       <c r="R60" s="12"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9"/>
@@ -6003,10 +6003,10 @@
       <c r="AA60" s="40"/>
     </row>
     <row r="61" spans="1:27">
-      <c r="A61" s="89"/>
-      <c r="B61" s="86"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="94"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="96"/>
       <c r="E61" s="18" t="s">
         <v>2</v>
       </c>
@@ -6040,8 +6040,8 @@
       <c r="O61" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P61" s="103"/>
-      <c r="Q61" s="109" t="str">
+      <c r="P61" s="85"/>
+      <c r="Q61" s="91" t="str">
         <f>VLOOKUP(D60,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -6081,14 +6081,14 @@
       </c>
     </row>
     <row r="62" spans="1:27">
-      <c r="A62" s="89"/>
-      <c r="B62" s="85">
+      <c r="A62" s="100"/>
+      <c r="B62" s="103">
         <v>2.3032407407407407E-3</v>
       </c>
-      <c r="C62" s="85">
+      <c r="C62" s="103">
         <v>0.93082175925925925</v>
       </c>
-      <c r="D62" s="95">
+      <c r="D62" s="105">
         <v>4</v>
       </c>
       <c r="E62" s="18" t="s">
@@ -6124,8 +6124,8 @@
       <c r="O62" s="28">
         <v>0</v>
       </c>
-      <c r="P62" s="103"/>
-      <c r="Q62" s="109"/>
+      <c r="P62" s="85"/>
+      <c r="Q62" s="91"/>
       <c r="R62" s="12"/>
       <c r="S62" s="9"/>
       <c r="T62" s="9"/>
@@ -6137,10 +6137,10 @@
       <c r="AA62" s="40"/>
     </row>
     <row r="63" spans="1:27">
-      <c r="A63" s="89"/>
-      <c r="B63" s="86"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="94"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="96"/>
       <c r="E63" s="18" t="s">
         <v>2</v>
       </c>
@@ -6174,8 +6174,8 @@
       <c r="O63" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P63" s="103"/>
-      <c r="Q63" s="109" t="str">
+      <c r="P63" s="85"/>
+      <c r="Q63" s="91" t="str">
         <f>VLOOKUP(D62,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -6215,14 +6215,14 @@
       </c>
     </row>
     <row r="64" spans="1:27">
-      <c r="A64" s="89"/>
-      <c r="B64" s="85">
+      <c r="A64" s="100"/>
+      <c r="B64" s="103">
         <v>2.9976851851851848E-3</v>
       </c>
-      <c r="C64" s="85">
+      <c r="C64" s="103">
         <v>0.9315162037037038</v>
       </c>
-      <c r="D64" s="95">
+      <c r="D64" s="105">
         <v>5</v>
       </c>
       <c r="E64" s="18" t="s">
@@ -6258,8 +6258,8 @@
       <c r="O64" s="28">
         <v>0</v>
       </c>
-      <c r="P64" s="103"/>
-      <c r="Q64" s="109"/>
+      <c r="P64" s="85"/>
+      <c r="Q64" s="91"/>
       <c r="R64" s="12"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9"/>
@@ -6271,10 +6271,10 @@
       <c r="AA64" s="40"/>
     </row>
     <row r="65" spans="1:27">
-      <c r="A65" s="89"/>
-      <c r="B65" s="86"/>
-      <c r="C65" s="86"/>
-      <c r="D65" s="94"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="96"/>
       <c r="E65" s="18" t="s">
         <v>2</v>
       </c>
@@ -6308,8 +6308,8 @@
       <c r="O65" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P65" s="103"/>
-      <c r="Q65" s="109" t="str">
+      <c r="P65" s="85"/>
+      <c r="Q65" s="91" t="str">
         <f>VLOOKUP(D64,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -6349,14 +6349,14 @@
       </c>
     </row>
     <row r="66" spans="1:27">
-      <c r="A66" s="89"/>
-      <c r="B66" s="85">
+      <c r="A66" s="100"/>
+      <c r="B66" s="103">
         <v>3.6921296296296298E-3</v>
       </c>
-      <c r="C66" s="85">
+      <c r="C66" s="103">
         <v>0.93221064814814814</v>
       </c>
-      <c r="D66" s="95">
+      <c r="D66" s="105">
         <v>6</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -6392,8 +6392,8 @@
       <c r="O66" s="28">
         <v>0</v>
       </c>
-      <c r="P66" s="103"/>
-      <c r="Q66" s="109"/>
+      <c r="P66" s="85"/>
+      <c r="Q66" s="91"/>
       <c r="R66" s="12"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9"/>
@@ -6405,10 +6405,10 @@
       <c r="AA66" s="40"/>
     </row>
     <row r="67" spans="1:27">
-      <c r="A67" s="89"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="94"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="96"/>
       <c r="E67" s="18" t="s">
         <v>2</v>
       </c>
@@ -6442,8 +6442,8 @@
       <c r="O67" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P67" s="103"/>
-      <c r="Q67" s="109" t="str">
+      <c r="P67" s="85"/>
+      <c r="Q67" s="91" t="str">
         <f>VLOOKUP(D66,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -6473,14 +6473,14 @@
       </c>
     </row>
     <row r="68" spans="1:27">
-      <c r="A68" s="89"/>
-      <c r="B68" s="85">
+      <c r="A68" s="100"/>
+      <c r="B68" s="103">
         <v>4.4560185185185189E-3</v>
       </c>
-      <c r="C68" s="85">
+      <c r="C68" s="103">
         <v>0.93297453703703714</v>
       </c>
-      <c r="D68" s="95">
+      <c r="D68" s="105">
         <v>7</v>
       </c>
       <c r="E68" s="18" t="s">
@@ -6514,8 +6514,8 @@
         <v>0</v>
       </c>
       <c r="O68" s="28"/>
-      <c r="P68" s="103"/>
-      <c r="Q68" s="109"/>
+      <c r="P68" s="85"/>
+      <c r="Q68" s="91"/>
       <c r="R68" s="12"/>
       <c r="S68" s="9"/>
       <c r="T68" s="9"/>
@@ -6527,10 +6527,10 @@
       <c r="AA68" s="40"/>
     </row>
     <row r="69" spans="1:27">
-      <c r="A69" s="89"/>
-      <c r="B69" s="86"/>
-      <c r="C69" s="86"/>
-      <c r="D69" s="94"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="96"/>
       <c r="E69" s="18" t="s">
         <v>2</v>
       </c>
@@ -6562,8 +6562,8 @@
         <v>28</v>
       </c>
       <c r="O69" s="28"/>
-      <c r="P69" s="103"/>
-      <c r="Q69" s="109" t="str">
+      <c r="P69" s="85"/>
+      <c r="Q69" s="91" t="str">
         <f>VLOOKUP(D68,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name2</v>
       </c>
@@ -6593,14 +6593,14 @@
       </c>
     </row>
     <row r="70" spans="1:27">
-      <c r="A70" s="89"/>
-      <c r="B70" s="85">
+      <c r="A70" s="100"/>
+      <c r="B70" s="103">
         <v>5.0925925925925921E-3</v>
       </c>
-      <c r="C70" s="85">
+      <c r="C70" s="103">
         <v>0.93361111111111106</v>
       </c>
-      <c r="D70" s="95">
+      <c r="D70" s="105">
         <v>0</v>
       </c>
       <c r="E70" s="18" t="s">
@@ -6636,8 +6636,8 @@
       <c r="O70" s="28">
         <v>0</v>
       </c>
-      <c r="P70" s="103"/>
-      <c r="Q70" s="109"/>
+      <c r="P70" s="85"/>
+      <c r="Q70" s="91"/>
       <c r="R70" s="12"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9"/>
@@ -6649,10 +6649,10 @@
       <c r="AA70" s="40"/>
     </row>
     <row r="71" spans="1:27">
-      <c r="A71" s="89"/>
-      <c r="B71" s="86"/>
-      <c r="C71" s="86"/>
-      <c r="D71" s="94"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="96"/>
       <c r="E71" s="18" t="s">
         <v>2</v>
       </c>
@@ -6686,8 +6686,8 @@
       <c r="O71" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P71" s="103"/>
-      <c r="Q71" s="109" t="str">
+      <c r="P71" s="85"/>
+      <c r="Q71" s="91" t="str">
         <f>VLOOKUP(D70,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Call sign</v>
       </c>
@@ -6717,14 +6717,14 @@
       </c>
     </row>
     <row r="72" spans="1:27">
-      <c r="A72" s="89"/>
-      <c r="B72" s="85">
+      <c r="A72" s="100"/>
+      <c r="B72" s="103">
         <v>5.7870370370370376E-3</v>
       </c>
-      <c r="C72" s="85">
+      <c r="C72" s="103">
         <v>0.9343055555555555</v>
       </c>
-      <c r="D72" s="95">
+      <c r="D72" s="105">
         <v>1</v>
       </c>
       <c r="E72" s="18" t="s">
@@ -6760,8 +6760,8 @@
       <c r="O72" s="28">
         <v>0</v>
       </c>
-      <c r="P72" s="103"/>
-      <c r="Q72" s="109"/>
+      <c r="P72" s="85"/>
+      <c r="Q72" s="91"/>
       <c r="R72" s="12"/>
       <c r="S72" s="9"/>
       <c r="T72" s="9"/>
@@ -6773,10 +6773,10 @@
       <c r="AA72" s="40"/>
     </row>
     <row r="73" spans="1:27">
-      <c r="A73" s="89"/>
-      <c r="B73" s="86"/>
-      <c r="C73" s="86"/>
-      <c r="D73" s="94"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="96"/>
       <c r="E73" s="18" t="s">
         <v>2</v>
       </c>
@@ -6810,8 +6810,8 @@
       <c r="O73" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P73" s="103"/>
-      <c r="Q73" s="109" t="str">
+      <c r="P73" s="85"/>
+      <c r="Q73" s="91" t="str">
         <f>VLOOKUP(D72,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Status</v>
       </c>
@@ -6841,14 +6841,14 @@
       </c>
     </row>
     <row r="74" spans="1:27">
-      <c r="A74" s="89"/>
-      <c r="B74" s="85">
+      <c r="A74" s="100"/>
+      <c r="B74" s="103">
         <v>6.4814814814814813E-3</v>
       </c>
-      <c r="C74" s="85">
+      <c r="C74" s="103">
         <v>0.93500000000000005</v>
       </c>
-      <c r="D74" s="95">
+      <c r="D74" s="105">
         <v>2</v>
       </c>
       <c r="E74" s="18" t="s">
@@ -6884,8 +6884,8 @@
       <c r="O74" s="28">
         <v>0</v>
       </c>
-      <c r="P74" s="103"/>
-      <c r="Q74" s="109"/>
+      <c r="P74" s="85"/>
+      <c r="Q74" s="91"/>
       <c r="R74" s="12"/>
       <c r="S74" s="9"/>
       <c r="T74" s="9"/>
@@ -6897,10 +6897,10 @@
       <c r="AA74" s="40"/>
     </row>
     <row r="75" spans="1:27">
-      <c r="A75" s="89"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="86"/>
-      <c r="D75" s="94"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="96"/>
       <c r="E75" s="18" t="s">
         <v>2</v>
       </c>
@@ -6934,8 +6934,8 @@
       <c r="O75" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P75" s="103"/>
-      <c r="Q75" s="109" t="str">
+      <c r="P75" s="85"/>
+      <c r="Q75" s="91" t="str">
         <f>VLOOKUP(D74,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -6975,14 +6975,14 @@
       </c>
     </row>
     <row r="76" spans="1:27">
-      <c r="A76" s="89"/>
-      <c r="B76" s="85">
+      <c r="A76" s="100"/>
+      <c r="B76" s="103">
         <v>7.1759259259259259E-3</v>
       </c>
-      <c r="C76" s="85">
+      <c r="C76" s="103">
         <v>0.9356944444444445</v>
       </c>
-      <c r="D76" s="95">
+      <c r="D76" s="105">
         <v>3</v>
       </c>
       <c r="E76" s="18" t="s">
@@ -7018,8 +7018,8 @@
       <c r="O76" s="28">
         <v>0</v>
       </c>
-      <c r="P76" s="103"/>
-      <c r="Q76" s="109"/>
+      <c r="P76" s="85"/>
+      <c r="Q76" s="91"/>
       <c r="R76" s="12"/>
       <c r="S76" s="9"/>
       <c r="T76" s="9"/>
@@ -7031,10 +7031,10 @@
       <c r="AA76" s="40"/>
     </row>
     <row r="77" spans="1:27">
-      <c r="A77" s="89"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="94"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="96"/>
       <c r="E77" s="18" t="s">
         <v>2</v>
       </c>
@@ -7068,8 +7068,8 @@
       <c r="O77" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P77" s="103"/>
-      <c r="Q77" s="109" t="str">
+      <c r="P77" s="85"/>
+      <c r="Q77" s="91" t="str">
         <f>VLOOKUP(D76,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7109,14 +7109,14 @@
       </c>
     </row>
     <row r="78" spans="1:27">
-      <c r="A78" s="89"/>
-      <c r="B78" s="85">
+      <c r="A78" s="100"/>
+      <c r="B78" s="103">
         <v>7.8703703703703713E-3</v>
       </c>
-      <c r="C78" s="85">
+      <c r="C78" s="103">
         <v>0.93638888888888883</v>
       </c>
-      <c r="D78" s="95">
+      <c r="D78" s="105">
         <v>4</v>
       </c>
       <c r="E78" s="18" t="s">
@@ -7152,8 +7152,8 @@
       <c r="O78" s="28">
         <v>0</v>
       </c>
-      <c r="P78" s="103"/>
-      <c r="Q78" s="109"/>
+      <c r="P78" s="85"/>
+      <c r="Q78" s="91"/>
       <c r="R78" s="12"/>
       <c r="S78" s="9"/>
       <c r="T78" s="9"/>
@@ -7165,10 +7165,10 @@
       <c r="AA78" s="40"/>
     </row>
     <row r="79" spans="1:27">
-      <c r="A79" s="89"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="86"/>
-      <c r="D79" s="94"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="96"/>
       <c r="E79" s="18" t="s">
         <v>2</v>
       </c>
@@ -7202,8 +7202,8 @@
       <c r="O79" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P79" s="103"/>
-      <c r="Q79" s="109" t="str">
+      <c r="P79" s="85"/>
+      <c r="Q79" s="91" t="str">
         <f>VLOOKUP(D78,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7243,14 +7243,14 @@
       </c>
     </row>
     <row r="80" spans="1:27">
-      <c r="A80" s="89"/>
-      <c r="B80" s="85">
+      <c r="A80" s="100"/>
+      <c r="B80" s="103">
         <v>8.564814814814815E-3</v>
       </c>
-      <c r="C80" s="85">
+      <c r="C80" s="103">
         <v>0.93708333333333327</v>
       </c>
-      <c r="D80" s="95">
+      <c r="D80" s="105">
         <v>5</v>
       </c>
       <c r="E80" s="18" t="s">
@@ -7286,8 +7286,8 @@
       <c r="O80" s="28">
         <v>0</v>
       </c>
-      <c r="P80" s="103"/>
-      <c r="Q80" s="109"/>
+      <c r="P80" s="85"/>
+      <c r="Q80" s="91"/>
       <c r="R80" s="12"/>
       <c r="S80" s="9"/>
       <c r="T80" s="9"/>
@@ -7299,10 +7299,10 @@
       <c r="AA80" s="40"/>
     </row>
     <row r="81" spans="1:27">
-      <c r="A81" s="89"/>
-      <c r="B81" s="86"/>
-      <c r="C81" s="86"/>
-      <c r="D81" s="94"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="96"/>
       <c r="E81" s="18" t="s">
         <v>2</v>
       </c>
@@ -7336,8 +7336,8 @@
       <c r="O81" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P81" s="103"/>
-      <c r="Q81" s="109" t="str">
+      <c r="P81" s="85"/>
+      <c r="Q81" s="91" t="str">
         <f>VLOOKUP(D80,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7377,14 +7377,14 @@
       </c>
     </row>
     <row r="82" spans="1:27">
-      <c r="A82" s="89"/>
-      <c r="B82" s="85">
+      <c r="A82" s="100"/>
+      <c r="B82" s="103">
         <v>9.2708333333333341E-3</v>
       </c>
-      <c r="C82" s="85">
+      <c r="C82" s="103">
         <v>0.93778935185185175</v>
       </c>
-      <c r="D82" s="95">
+      <c r="D82" s="105">
         <v>6</v>
       </c>
       <c r="E82" s="18" t="s">
@@ -7420,8 +7420,8 @@
       <c r="O82" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P82" s="103"/>
-      <c r="Q82" s="109"/>
+      <c r="P82" s="85"/>
+      <c r="Q82" s="91"/>
       <c r="R82" s="12"/>
       <c r="S82" s="9"/>
       <c r="T82" s="9"/>
@@ -7433,10 +7433,10 @@
       <c r="AA82" s="40"/>
     </row>
     <row r="83" spans="1:27">
-      <c r="A83" s="90"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="94"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="96"/>
       <c r="E83" s="18" t="s">
         <v>2</v>
       </c>
@@ -7470,8 +7470,8 @@
       <c r="O83" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P83" s="103"/>
-      <c r="Q83" s="109" t="str">
+      <c r="P83" s="85"/>
+      <c r="Q83" s="91" t="str">
         <f>VLOOKUP(D82,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -7501,16 +7501,16 @@
       </c>
     </row>
     <row r="84" spans="1:27">
-      <c r="A84" s="91">
+      <c r="A84" s="99">
         <v>15</v>
       </c>
-      <c r="B84" s="85">
+      <c r="B84" s="103">
         <v>9.6064814814814808E-4</v>
       </c>
-      <c r="C84" s="85">
+      <c r="C84" s="103">
         <v>0.97684027777777782</v>
       </c>
-      <c r="D84" s="95">
+      <c r="D84" s="105">
         <v>2</v>
       </c>
       <c r="E84" s="18" t="s">
@@ -7546,8 +7546,8 @@
       <c r="O84" s="28">
         <v>0</v>
       </c>
-      <c r="P84" s="103"/>
-      <c r="Q84" s="109"/>
+      <c r="P84" s="85"/>
+      <c r="Q84" s="91"/>
       <c r="R84" s="12"/>
       <c r="S84" s="9"/>
       <c r="T84" s="9"/>
@@ -7559,10 +7559,10 @@
       <c r="AA84" s="40"/>
     </row>
     <row r="85" spans="1:27">
-      <c r="A85" s="89"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="94"/>
+      <c r="A85" s="100"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="96"/>
       <c r="E85" s="18" t="s">
         <v>2</v>
       </c>
@@ -7596,8 +7596,8 @@
       <c r="O85" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P85" s="103"/>
-      <c r="Q85" s="109" t="str">
+      <c r="P85" s="85"/>
+      <c r="Q85" s="91" t="str">
         <f>VLOOKUP(D84,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7637,14 +7637,14 @@
       </c>
     </row>
     <row r="86" spans="1:27">
-      <c r="A86" s="89"/>
-      <c r="B86" s="85">
+      <c r="A86" s="100"/>
+      <c r="B86" s="103">
         <v>1.6550925925925926E-3</v>
       </c>
-      <c r="C86" s="85">
+      <c r="C86" s="103">
         <v>0.97753472222222226</v>
       </c>
-      <c r="D86" s="95">
+      <c r="D86" s="105">
         <v>3</v>
       </c>
       <c r="E86" s="18" t="s">
@@ -7680,8 +7680,8 @@
       <c r="O86" s="28">
         <v>0</v>
       </c>
-      <c r="P86" s="103"/>
-      <c r="Q86" s="109"/>
+      <c r="P86" s="85"/>
+      <c r="Q86" s="91"/>
       <c r="R86" s="12"/>
       <c r="S86" s="9"/>
       <c r="T86" s="9"/>
@@ -7693,10 +7693,10 @@
       <c r="AA86" s="40"/>
     </row>
     <row r="87" spans="1:27">
-      <c r="A87" s="89"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="94"/>
+      <c r="A87" s="100"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="96"/>
       <c r="E87" s="18" t="s">
         <v>2</v>
       </c>
@@ -7730,8 +7730,8 @@
       <c r="O87" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P87" s="103"/>
-      <c r="Q87" s="109" t="str">
+      <c r="P87" s="85"/>
+      <c r="Q87" s="91" t="str">
         <f>VLOOKUP(D86,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7771,14 +7771,14 @@
       </c>
     </row>
     <row r="88" spans="1:27">
-      <c r="A88" s="89"/>
-      <c r="B88" s="85">
+      <c r="A88" s="100"/>
+      <c r="B88" s="103">
         <v>2.3495370370370371E-3</v>
       </c>
-      <c r="C88" s="85">
+      <c r="C88" s="103">
         <v>0.97822916666666659</v>
       </c>
-      <c r="D88" s="95">
+      <c r="D88" s="105">
         <v>4</v>
       </c>
       <c r="E88" s="18" t="s">
@@ -7814,8 +7814,8 @@
       <c r="O88" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P88" s="103"/>
-      <c r="Q88" s="109"/>
+      <c r="P88" s="85"/>
+      <c r="Q88" s="91"/>
       <c r="R88" s="12"/>
       <c r="S88" s="9"/>
       <c r="T88" s="9"/>
@@ -7827,10 +7827,10 @@
       <c r="AA88" s="40"/>
     </row>
     <row r="89" spans="1:27">
-      <c r="A89" s="89"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="94"/>
+      <c r="A89" s="100"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="96"/>
       <c r="E89" s="18" t="s">
         <v>2</v>
       </c>
@@ -7864,8 +7864,8 @@
       <c r="O89" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P89" s="103"/>
-      <c r="Q89" s="109" t="str">
+      <c r="P89" s="85"/>
+      <c r="Q89" s="91" t="str">
         <f>VLOOKUP(D88,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -7905,14 +7905,14 @@
       </c>
     </row>
     <row r="90" spans="1:27">
-      <c r="A90" s="89"/>
-      <c r="B90" s="85">
+      <c r="A90" s="100"/>
+      <c r="B90" s="103">
         <v>3.0439814814814821E-3</v>
       </c>
-      <c r="C90" s="85">
+      <c r="C90" s="103">
         <v>0.97892361111111104</v>
       </c>
-      <c r="D90" s="95">
+      <c r="D90" s="105">
         <v>5</v>
       </c>
       <c r="E90" s="18" t="s">
@@ -7948,8 +7948,8 @@
       <c r="O90" s="28">
         <v>0</v>
       </c>
-      <c r="P90" s="103"/>
-      <c r="Q90" s="109"/>
+      <c r="P90" s="85"/>
+      <c r="Q90" s="91"/>
       <c r="R90" s="12"/>
       <c r="S90" s="9"/>
       <c r="T90" s="9"/>
@@ -7961,10 +7961,10 @@
       <c r="AA90" s="40"/>
     </row>
     <row r="91" spans="1:27">
-      <c r="A91" s="89"/>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="94"/>
+      <c r="A91" s="100"/>
+      <c r="B91" s="94"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="96"/>
       <c r="E91" s="18" t="s">
         <v>2</v>
       </c>
@@ -7998,8 +7998,8 @@
       <c r="O91" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="P91" s="103"/>
-      <c r="Q91" s="109" t="str">
+      <c r="P91" s="85"/>
+      <c r="Q91" s="91" t="str">
         <f>VLOOKUP(D90,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Poem</v>
       </c>
@@ -8039,14 +8039,14 @@
       </c>
     </row>
     <row r="92" spans="1:27">
-      <c r="A92" s="89"/>
-      <c r="B92" s="85">
+      <c r="A92" s="100"/>
+      <c r="B92" s="103">
         <v>3.7384259259259263E-3</v>
       </c>
-      <c r="C92" s="85">
+      <c r="C92" s="103">
         <v>0.97961805555555559</v>
       </c>
-      <c r="D92" s="95">
+      <c r="D92" s="105">
         <v>6</v>
       </c>
       <c r="E92" s="18" t="s">
@@ -8082,8 +8082,8 @@
       <c r="O92" s="28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P92" s="103"/>
-      <c r="Q92" s="109"/>
+      <c r="P92" s="85"/>
+      <c r="Q92" s="91"/>
       <c r="R92" s="12"/>
       <c r="S92" s="9"/>
       <c r="T92" s="9"/>
@@ -8095,10 +8095,10 @@
       <c r="AA92" s="40"/>
     </row>
     <row r="93" spans="1:27" ht="12" thickBot="1">
-      <c r="A93" s="96"/>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="98"/>
+      <c r="A93" s="102"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="106"/>
       <c r="E93" s="19" t="s">
         <v>2</v>
       </c>
@@ -8132,8 +8132,8 @@
       <c r="O93" s="29" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P93" s="103"/>
-      <c r="Q93" s="110" t="str">
+      <c r="P93" s="85"/>
+      <c r="Q93" s="92" t="str">
         <f>VLOOKUP(D92,'Category Type List'!$A$2:$C$9,2,FALSE)</f>
         <v>Name1</v>
       </c>
@@ -8164,6 +8164,127 @@
     </row>
   </sheetData>
   <mergeCells count="145">
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A44:A55"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="A56:A83"/>
+    <mergeCell ref="A84:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:D91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
@@ -8188,127 +8309,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="A56:A83"/>
-    <mergeCell ref="A84:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:D91"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A44:A55"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -8466,13 +8466,13 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="101" t="s">
+      <c r="B2" s="109" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="109" t="s">
         <v>50</v>
       </c>
       <c r="D2" s="4">
@@ -8480,57 +8480,57 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
       <c r="D3" s="4">
         <v>-11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="101"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
       <c r="D4" s="4">
         <v>-10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="101"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
       <c r="D5" s="4">
         <v>-9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="101"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
       <c r="D6" s="4">
         <v>-8</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="101"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
       <c r="D7" s="4">
         <v>-7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="101"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
       <c r="D8" s="4">
         <v>-6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="101"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="4">
         <v>-5</v>
       </c>
@@ -9208,13 +9208,13 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="109" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="101" t="s">
+      <c r="B58" s="109" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="109" t="s">
         <v>196</v>
       </c>
       <c r="D58" s="4">
@@ -9222,57 +9222,57 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="101"/>
-      <c r="B59" s="101"/>
-      <c r="C59" s="101"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="109"/>
       <c r="D59" s="4">
         <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="101"/>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
       <c r="D60" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="101"/>
-      <c r="B61" s="101"/>
-      <c r="C61" s="101"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
       <c r="D61" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="101"/>
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="109"/>
       <c r="D62" s="4">
         <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="101"/>
-      <c r="B63" s="101"/>
-      <c r="C63" s="101"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="109"/>
       <c r="D63" s="4">
         <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="101"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
       <c r="D64" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="101"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="101"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="109"/>
+      <c r="C65" s="109"/>
       <c r="D65" s="4">
         <v>51</v>
       </c>
